--- a/samara_tarif.xlsx
+++ b/samara_tarif.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisBook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АнастасияСавинкина\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korolev\Desktop\разработки локально\Сборка xls для тарифов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458A647-A31C-437B-8679-1E519FE8921B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Тарифы" sheetId="1" r:id="rId550"/>
-    <sheet name="Тарифы_1" sheetId="2" state="hidden" r:id="rId551"/>
+    <sheet name="Тарифы" sheetId="1" r:id="rId1"/>
+    <sheet name="Тарифы_1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t xml:space="preserve">   Код Геозоны отправления</t>
   </si>
@@ -375,16 +374,35 @@
   </si>
   <si>
     <t>005056B43A1A1EDDA8BD8DDA6E85E0E4</t>
+  </si>
+  <si>
+    <t>1,5тн 6м СПК-Самара   [Z-PO1033-ST-CL-1.5T-6M]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -411,13 +429,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,23 +533,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -564,23 +568,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -755,73 +742,79 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet550.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="21.77734375" customWidth="1"/>
+    <col min="1" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s" s="1">
-        <v>0 </v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1 </v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>2 </v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>1 </v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>3 </v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>4 </v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>5 </v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>6 </v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>7 </v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>8 </v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>9 </v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>10 </v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>11 </v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s" s="1">
-        <v>12 </v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>13 </v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>15 </v>
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -829,24 +822,24 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
-        <v>50000.000000</v>
+        <v>50000</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s" s="1">
-        <v>16 </v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>17 </v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>15 </v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -854,24 +847,27 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>30000.000000</v>
+        <v>30000</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s" s="1">
-        <v>18 </v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>19 </v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>15 </v>
+      <c r="N3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -879,979 +875,1043 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>13000.000000</v>
+        <v>13000</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>20 </v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>21 </v>
+      <c r="N4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>3500.000000</v>
+        <v>3500</v>
       </c>
       <c r="F5" s="1">
-        <v>6500.000000</v>
+        <v>6500</v>
       </c>
       <c r="G5" s="1">
-        <v>14000.000000</v>
+        <v>14000</v>
       </c>
       <c r="H5" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="I5" s="1">
-        <v>9000.000000</v>
+        <v>9000</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="M5" s="1">
-        <v>6000.000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>22 </v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>23 </v>
+        <v>6000</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>4000.000000</v>
+        <v>4000</v>
       </c>
       <c r="F6" s="1">
-        <v>7500.000000</v>
+        <v>7500</v>
       </c>
       <c r="G6" s="1">
-        <v>14000.000000</v>
+        <v>14000</v>
       </c>
       <c r="H6" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="I6" s="1">
-        <v>9500.000000</v>
+        <v>9500</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>9000.000000</v>
+        <v>9000</v>
       </c>
       <c r="M6" s="1">
-        <v>7000.000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>24 </v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>25 </v>
+        <v>7000</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>4500.000000</v>
+        <v>4500</v>
       </c>
       <c r="F7" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="G7" s="1">
-        <v>14000.000000</v>
+        <v>14000</v>
       </c>
       <c r="H7" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="I7" s="1">
-        <v>10500.000000</v>
+        <v>10500</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>10000.000000</v>
+        <v>10000</v>
       </c>
       <c r="M7" s="1">
-        <v>8000.000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>26 </v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>27 </v>
+        <v>8000</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="1">
-        <v>6000.000000</v>
+        <v>6000</v>
       </c>
       <c r="F8" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>13000.000000</v>
+        <v>13000</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <v>11500.000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>28 </v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>29 </v>
+        <v>11500</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>6500.000000</v>
+        <v>6500</v>
       </c>
       <c r="F9" s="1">
-        <v>11000.000000</v>
+        <v>11000</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <v>10000.000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>30 </v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>31 </v>
+        <v>10000</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="1">
-        <v>7000.000000</v>
+        <v>7000</v>
       </c>
       <c r="F10" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>13500.000000</v>
+        <v>13500</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>11500.000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>32 </v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>33 </v>
+        <v>11500</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>7200.000000</v>
+        <v>7200</v>
       </c>
       <c r="F11" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <v>14000.000000</v>
+        <v>14000</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>11500.000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>34 </v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>35 </v>
+        <v>11500</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="1">
-        <v>7500.000000</v>
+        <v>7500</v>
       </c>
       <c r="F12" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <v>13000.000000</v>
+        <v>13000</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>11000.000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B13" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C13" t="s" s="1">
-        <v>36 </v>
-      </c>
-      <c r="D13" t="s" s="1">
-        <v>37 </v>
+        <v>11000</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="1">
-        <v>15600.000000</v>
+        <v>15600</v>
       </c>
       <c r="F13" s="1">
-        <v>23500.000000</v>
+        <v>23500</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>25000.000000</v>
+        <v>25000</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>22800.000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B14" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C14" t="s" s="1">
-        <v>38 </v>
-      </c>
-      <c r="D14" t="s" s="1">
-        <v>39 </v>
+        <v>22800</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="1">
-        <v>9700.000000</v>
+        <v>9700</v>
       </c>
       <c r="F14" s="1">
-        <v>17000.000000</v>
+        <v>17000</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>19000.000000</v>
+        <v>19000</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
-        <v>16000.000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>40 </v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>41 </v>
+        <v>16000</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="1">
-        <v>9700.000000</v>
+        <v>9700</v>
       </c>
       <c r="F15" s="1">
-        <v>15000.000000</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>17000.000000</v>
+        <v>17000</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
-        <v>14000.000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B16" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C16" t="s" s="1">
-        <v>42 </v>
-      </c>
-      <c r="D16" t="s" s="1">
-        <v>43 </v>
+        <v>14000</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E16" s="1">
-        <v>11600.000000</v>
+        <v>11600</v>
       </c>
       <c r="F16" s="1">
-        <v>19500.000000</v>
+        <v>19500</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
-        <v>21000.000000</v>
+        <v>21000</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
-        <v>18500.000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B17" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C17" t="s" s="1">
-        <v>44 </v>
-      </c>
-      <c r="D17" t="s" s="1">
-        <v>45 </v>
+        <v>18500</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="F17" s="1">
-        <v>28000.000000</v>
+        <v>28000</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
-        <v>30000.000000</v>
+        <v>30000</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>25500.000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B18" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C18" t="s" s="1">
-        <v>46 </v>
-      </c>
-      <c r="D18" t="s" s="1">
-        <v>47 </v>
+        <v>25500</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="1">
-        <v>15000.000000</v>
+        <v>15000</v>
       </c>
       <c r="F18" s="1">
-        <v>25000.000000</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
-        <v>27000.000000</v>
+        <v>27000</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
-        <v>24000.000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B19" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C19" t="s" s="1">
-        <v>48 </v>
-      </c>
-      <c r="D19" t="s" s="1">
-        <v>49 </v>
+        <v>24000</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="F19" s="1">
-        <v>26000.000000</v>
+        <v>26000</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>30000.000000</v>
+        <v>30000</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>25500.000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B20" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C20" t="s" s="1">
-        <v>50 </v>
-      </c>
-      <c r="D20" t="s" s="1">
-        <v>51 </v>
+        <v>25500</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="1">
-        <v>16000.000000</v>
+        <v>16000</v>
       </c>
       <c r="F20" s="1">
-        <v>26000.000000</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
-        <v>30000.000000</v>
+        <v>30000</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>25500.000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B21" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C21" t="s" s="1">
-        <v>52 </v>
-      </c>
-      <c r="D21" t="s" s="1">
-        <v>53 </v>
+        <v>25500</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="1">
-        <v>35000.000000</v>
+        <v>35000</v>
       </c>
       <c r="F21" s="1">
-        <v>40000.000000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
-        <v>45000.000000</v>
+        <v>45000</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>33000.000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C22" t="s" s="1">
-        <v>54 </v>
-      </c>
-      <c r="D22" t="s" s="1">
-        <v>55 </v>
+        <v>33000</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="1">
-        <v>40000.000000</v>
+        <v>40000</v>
       </c>
       <c r="F22" s="1">
-        <v>55000.000000</v>
+        <v>55000</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>60000.000000</v>
+        <v>60000</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>50000.000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B23" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C23" t="s" s="1">
-        <v>56 </v>
-      </c>
-      <c r="D23" t="s" s="1">
-        <v>57 </v>
+        <v>50000</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="1">
-        <v>40000.000000</v>
+        <v>40000</v>
       </c>
       <c r="F23" s="1">
-        <v>50000.000000</v>
+        <v>50000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
-        <v>55000.000000</v>
+        <v>55000</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>45000.000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B24" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C24" t="s" s="1">
-        <v>58 </v>
-      </c>
-      <c r="D24" t="s" s="1">
-        <v>59 </v>
+        <v>45000</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="1">
-        <v>30000.000000</v>
+        <v>30000</v>
       </c>
       <c r="F24" s="1">
-        <v>45000.000000</v>
+        <v>45000</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
-        <v>50000.000000</v>
+        <v>50000</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>40000.000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B25" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C25" t="s" s="1">
-        <v>60 </v>
-      </c>
-      <c r="D25" t="s" s="1">
-        <v>61 </v>
+        <v>40000</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E25" s="1">
-        <v>35000.000000</v>
+        <v>35000</v>
       </c>
       <c r="F25" s="1">
-        <v>40000.000000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
-        <v>45000.000000</v>
+        <v>45000</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>33000.000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B26" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C26" t="s" s="1">
-        <v>62 </v>
-      </c>
-      <c r="D26" t="s" s="1">
-        <v>63 </v>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="1">
-        <v>7000.000000</v>
+        <v>7000</v>
       </c>
       <c r="F26" s="1">
-        <v>13500.000000</v>
+        <v>13500</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
-        <v>15000.000000</v>
+        <v>15000</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
-        <v>12500.000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B27" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C27" t="s" s="1">
-        <v>64 </v>
-      </c>
-      <c r="D27" t="s" s="1">
-        <v>65 </v>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E27" s="1">
-        <v>40000.000000</v>
+        <v>40000</v>
       </c>
       <c r="F27" s="1">
-        <v>50000.000000</v>
+        <v>50000</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
-        <v>55000.000000</v>
+        <v>55000</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
-        <v>45000.000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="B28" t="s" s="1">
-        <v>15 </v>
-      </c>
-      <c r="C28" t="s" s="1">
-        <v>66 </v>
-      </c>
-      <c r="D28" t="s" s="1">
-        <v>67 </v>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E28" s="1">
-        <v>13600.000000</v>
+        <v>13600</v>
       </c>
       <c r="F28" s="1">
-        <v>21500.000000</v>
+        <v>21500</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
-        <v>23000.000000</v>
+        <v>23000</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>21000.000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s" s="1">
-        <v>20 </v>
-      </c>
-      <c r="B29" t="s" s="1">
-        <v>21 </v>
-      </c>
-      <c r="C29" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D29" t="s" s="1">
-        <v>15 </v>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E29" s="1">
-        <v>3000.000000</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="1">
-        <v>5500.000000</v>
+        <v>5500</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="K29" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="L29" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s" s="1">
-        <v>22 </v>
-      </c>
-      <c r="B30" t="s" s="1">
-        <v>23 </v>
-      </c>
-      <c r="C30" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D30" t="s" s="1">
-        <v>15 </v>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E30" s="1">
-        <v>3500.000000</v>
+        <v>3500</v>
       </c>
       <c r="F30" s="1">
-        <v>6000.000000</v>
+        <v>6000</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <v>9000.000000</v>
+        <v>9000</v>
       </c>
       <c r="K30" s="1">
-        <v>9000.000000</v>
+        <v>9000</v>
       </c>
       <c r="L30" s="1">
-        <v>9000.000000</v>
+        <v>9000</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s" s="1">
-        <v>24 </v>
-      </c>
-      <c r="B31" t="s" s="1">
-        <v>25 </v>
-      </c>
-      <c r="C31" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D31" t="s" s="1">
-        <v>15 </v>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E31" s="1">
-        <v>4000.000000</v>
+        <v>4000</v>
       </c>
       <c r="F31" s="1">
-        <v>6500.000000</v>
+        <v>6500</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>10000.000000</v>
+        <v>10000</v>
       </c>
       <c r="K31" s="1">
-        <v>10000.000000</v>
+        <v>10000</v>
       </c>
       <c r="L31" s="1">
-        <v>10000.000000</v>
+        <v>10000</v>
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s" s="1">
-        <v>26 </v>
-      </c>
-      <c r="B32" t="s" s="1">
-        <v>27 </v>
-      </c>
-      <c r="C32" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D32" t="s" s="1">
-        <v>15 </v>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <v>4500.000000</v>
+        <v>4500</v>
       </c>
       <c r="F32" s="1">
-        <v>8500.000000</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>11000.000000</v>
+        <v>11000</v>
       </c>
       <c r="K32" s="1">
-        <v>11000.000000</v>
+        <v>11000</v>
       </c>
       <c r="L32" s="1">
-        <v>11000.000000</v>
+        <v>11000</v>
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s" s="1">
-        <v>30 </v>
-      </c>
-      <c r="B33" t="s" s="1">
-        <v>31 </v>
-      </c>
-      <c r="C33" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D33" t="s" s="1">
-        <v>15 </v>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>4500.000000</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="1">
-        <v>9500.000000</v>
+        <v>9500</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>11500.000000</v>
+        <v>11500</v>
       </c>
       <c r="K33" s="1">
-        <v>11500.000000</v>
+        <v>11500</v>
       </c>
       <c r="L33" s="1">
-        <v>11500.000000</v>
+        <v>11500</v>
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s" s="1">
-        <v>42 </v>
-      </c>
-      <c r="B34" t="s" s="1">
-        <v>43 </v>
-      </c>
-      <c r="C34" t="s" s="1">
-        <v>14 </v>
-      </c>
-      <c r="D34" t="s" s="1">
-        <v>15 </v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E34" s="1">
-        <v>7500.000000</v>
+        <v>7500</v>
       </c>
       <c r="F34" s="1">
-        <v>12000.000000</v>
+        <v>12000</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>21000.000000</v>
+        <v>21000</v>
       </c>
       <c r="K34" s="1">
-        <v>21000.000000</v>
+        <v>21000</v>
       </c>
       <c r="L34" s="1">
-        <v>21000.000000</v>
+        <v>21000</v>
       </c>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet551.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1859,210 +1919,210 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68 </v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>69 </v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70 </v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71 </v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72 </v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>73 </v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74 </v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>75 </v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76 </v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>77 </v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78 </v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>79 </v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80 </v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>81 </v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82 </v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>83 </v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84 </v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>85 </v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86 </v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>87 </v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88 </v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>89 </v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90 </v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>91 </v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92 </v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>93 </v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94 </v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>95 </v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96 </v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>97 </v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98 </v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>99 </v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100 </v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>101 </v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102 </v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>103 </v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104 </v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>105 </v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106 </v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>107 </v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108 </v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>109 </v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110 </v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>111 </v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112 </v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>113 </v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114 </v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>115 </v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116 </v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>117 </v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/samara_tarif.xlsx
+++ b/samara_tarif.xlsx
@@ -43,9 +43,6 @@
     <t>манипулятор 20тн 12м СПК-Самара   [Z-PO1033-ST-20T-12M]</t>
   </si>
   <si>
-    <t>20тн 13.5м СПК-Самара   [Z-1033-GT-20T-13.5M]</t>
-  </si>
-  <si>
     <t>ПЦС 20тн 13,5м СПК-Самара   [Z-1033-PS-20T-13.5M]</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>1,5тн 6м СПК-Самара   [Z-PO1033-ST-CL-1.5T-6M]</t>
+  </si>
+  <si>
+    <t>55тн 13.5м СПК-Самара   [Z-1033-GT-55T-13.5M]</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,36 +785,36 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -830,16 +830,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -858,16 +858,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -886,16 +886,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>3500</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>4000</v>
@@ -966,16 +966,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>4500</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>6000</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>6500</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>7000</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>7200</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>7500</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>15600</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="1">
         <v>9700</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="1">
         <v>9700</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>11600</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>16000</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="1">
         <v>15000</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>16000</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>16000</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="1">
         <v>35000</v>
@@ -1482,16 +1482,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="1">
         <v>40000</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="1">
         <v>40000</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="1">
         <v>30000</v>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="1">
         <v>35000</v>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="1">
         <v>7000</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E27" s="1">
         <v>40000</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="1">
         <v>13600</v>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1">
         <v>3000</v>
@@ -1741,16 +1741,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1">
         <v>3500</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1">
         <v>4000</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1">
         <v>4500</v>
@@ -1840,16 +1840,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1">
         <v>4500</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1">
         <v>7500</v>
@@ -1927,202 +1927,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
         <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
         <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
         <v>102</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
         <v>112</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
         <v>114</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
